--- a/WebCongViec_v2/wwwroot/chamcong/files/upload_ns.xlsx
+++ b/WebCongViec_v2/wwwroot/chamcong/files/upload_ns.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20655" windowHeight="13125"/>
+    <workbookView windowHeight="17850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>THÊM DANH SÁCH NHÂN SỰ</t>
   </si>
@@ -53,7 +53,7 @@
     <t>Hệ số OT thường:</t>
   </si>
   <si>
-    <t>Dấu ngăn cách thập phân là dấu ',' (ví dụ: 1,4)</t>
+    <t>Dấu ngăn cách thập phân là dấu '.' (ví dụ: 1.4)</t>
   </si>
   <si>
     <t xml:space="preserve">Hệ số OT chủ nhật: </t>
@@ -62,7 +62,7 @@
     <t>Mức lương cơ bản 8h:</t>
   </si>
   <si>
-    <t>Dấu ngăn cách thập phân là dấu ',' - Là số hoặc công thức</t>
+    <t>Dấu ngăn cách thập phân là dấu '.' - Là số hoặc công thức</t>
   </si>
   <si>
     <t>Mức lương dự án 8h:</t>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>Nguyễn Mười Một</t>
+  </si>
+  <si>
+    <t>208333.3333</t>
+  </si>
+  <si>
+    <t>83333.3333</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.4</t>
   </si>
   <si>
     <t>Nguyễn Mười Hai</t>
@@ -108,7 +120,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,13 +160,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -759,148 +764,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1282,7 +1287,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1411,19 +1416,17 @@
       <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="17">
-        <f>5000000/24</f>
-        <v>208333.333333333</v>
-      </c>
-      <c r="E8" s="17">
-        <f>2000000/24</f>
-        <v>83333.3333333333</v>
-      </c>
-      <c r="F8" s="17">
-        <v>1.2</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1.4</v>
+      <c r="D8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1431,24 +1434,22 @@
         <v>12</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="17">
-        <f t="shared" ref="D9:D10" si="0">5000000/24</f>
-        <v>208333.333333333</v>
-      </c>
-      <c r="E9" s="17">
-        <f t="shared" ref="E9:E10" si="1">2000000/24</f>
-        <v>83333.3333333333</v>
-      </c>
-      <c r="F9" s="17">
-        <v>1.2</v>
-      </c>
-      <c r="G9" s="17">
-        <v>1.4</v>
+      <c r="D9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1456,24 +1457,22 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="17">
-        <f t="shared" si="0"/>
-        <v>208333.333333333</v>
-      </c>
-      <c r="E10" s="17">
-        <f t="shared" si="1"/>
-        <v>83333.3333333333</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1.2</v>
-      </c>
-      <c r="G10" s="17">
-        <v>1.4</v>
+      <c r="D10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
